--- a/platilla maquina estados.xlsx
+++ b/platilla maquina estados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/ncontreras_frba_utn_edu_ar/Documents/2023/Finales/Digitales 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/lduggan_frba_utn_edu_ar/Documents/Facultad/Final-TD1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{6C0384CD-2981-4483-979C-ED1C5BC2843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C17CDF75-11FD-41FE-99CE-3C72D89331B5}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{6C0384CD-2981-4483-979C-ED1C5BC2843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0D9F80E-AF75-43C0-8401-13A2EC94BDF7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94E38575-7354-467A-8929-32ADB8868371}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Estado</t>
   </si>
@@ -68,9 +68,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>D1D0</t>
   </si>
   <si>
-    <t>Estados</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -95,26 +89,53 @@
     <t>G</t>
   </si>
   <si>
-    <t>clk</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>RST = 1</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>00001000</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +167,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,11 +227,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -211,15 +241,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,55 +278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>405161</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80712</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>575719</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14037</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5995893B-BB68-74F8-66F7-20BA14BD6903}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5739161" y="2747712"/>
-          <a:ext cx="3218558" cy="1647825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,354 +577,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D567BC4C-54B3-460A-AAFB-B01BEA19A8EF}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C26" sqref="A18:C26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21 C15 C16:C20 G15:G21 E14:F21" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>